--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam23-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam23-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Adam23</t>
   </si>
   <si>
     <t>Itgb3</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.4998576666666667</v>
+        <v>0.2320676666666667</v>
       </c>
       <c r="H2">
-        <v>1.499573</v>
+        <v>0.696203</v>
       </c>
       <c r="I2">
-        <v>0.02650617333988447</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="J2">
-        <v>0.02650617333988446</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N2">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O2">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P2">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q2">
-        <v>3.304148317950556</v>
+        <v>1.418339948529444</v>
       </c>
       <c r="R2">
-        <v>29.737334861555</v>
+        <v>12.765059536765</v>
       </c>
       <c r="S2">
-        <v>0.01739180836612313</v>
+        <v>0.007097032213224752</v>
       </c>
       <c r="T2">
-        <v>0.01739180836612313</v>
+        <v>0.00709703221322475</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.4998576666666667</v>
+        <v>0.2320676666666667</v>
       </c>
       <c r="H3">
-        <v>1.499573</v>
+        <v>0.696203</v>
       </c>
       <c r="I3">
-        <v>0.02650617333988447</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="J3">
-        <v>0.02650617333988446</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>8.262912</v>
       </c>
       <c r="O3">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P3">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q3">
-        <v>1.376759970730667</v>
+        <v>0.6391849025706666</v>
       </c>
       <c r="R3">
-        <v>12.390839736576</v>
+        <v>5.752664123136</v>
       </c>
       <c r="S3">
-        <v>0.007246752649393433</v>
+        <v>0.003198327628333577</v>
       </c>
       <c r="T3">
-        <v>0.007246752649393434</v>
+        <v>0.003198327628333577</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.4998576666666667</v>
+        <v>0.2320676666666667</v>
       </c>
       <c r="H4">
-        <v>1.499573</v>
+        <v>0.696203</v>
       </c>
       <c r="I4">
-        <v>0.02650617333988447</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="J4">
-        <v>0.02650617333988446</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N4">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O4">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P4">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q4">
-        <v>0.1146091986247778</v>
+        <v>0.1319163123723333</v>
       </c>
       <c r="R4">
-        <v>1.031482787623</v>
+        <v>1.187246811351</v>
       </c>
       <c r="S4">
-        <v>0.0006032602134257175</v>
+        <v>0.0006600775218430175</v>
       </c>
       <c r="T4">
-        <v>0.0006032602134257174</v>
+        <v>0.0006600775218430174</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.4998576666666667</v>
+        <v>0.2320676666666667</v>
       </c>
       <c r="H5">
-        <v>1.499573</v>
+        <v>0.696203</v>
       </c>
       <c r="I5">
-        <v>0.02650617333988447</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="J5">
-        <v>0.02650617333988446</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N5">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O5">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P5">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q5">
-        <v>0.1328030179761111</v>
+        <v>0.08561355267188889</v>
       </c>
       <c r="R5">
-        <v>1.195227161785</v>
+        <v>0.770521974047</v>
       </c>
       <c r="S5">
-        <v>0.0006990257145950227</v>
+        <v>0.00042838964088333</v>
       </c>
       <c r="T5">
-        <v>0.0006990257145950227</v>
+        <v>0.00042838964088333</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.4998576666666667</v>
+        <v>0.2320676666666667</v>
       </c>
       <c r="H6">
-        <v>1.499573</v>
+        <v>0.696203</v>
       </c>
       <c r="I6">
-        <v>0.02650617333988447</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="J6">
-        <v>0.02650617333988446</v>
+        <v>0.01170834749781651</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N6">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O6">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P6">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q6">
-        <v>0.107402417406</v>
+        <v>0.06485533195622223</v>
       </c>
       <c r="R6">
-        <v>0.9666217566540001</v>
+        <v>0.583697987606</v>
       </c>
       <c r="S6">
-        <v>0.0005653263963471605</v>
+        <v>0.0003245204935318358</v>
       </c>
       <c r="T6">
-        <v>0.0005653263963471604</v>
+        <v>0.0003245204935318357</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>52.897882</v>
       </c>
       <c r="I7">
-        <v>0.9350131201380354</v>
+        <v>0.889606600882922</v>
       </c>
       <c r="J7">
-        <v>0.9350131201380353</v>
+        <v>0.8896066008829221</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N7">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O7">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P7">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q7">
-        <v>116.5548111585411</v>
+        <v>107.7662394922122</v>
       </c>
       <c r="R7">
-        <v>1048.99330042687</v>
+        <v>969.8961554299098</v>
       </c>
       <c r="S7">
-        <v>0.6135011944852261</v>
+        <v>0.53923636147124</v>
       </c>
       <c r="T7">
-        <v>0.6135011944852261</v>
+        <v>0.5392363614712399</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>52.897882</v>
       </c>
       <c r="I8">
-        <v>0.9350131201380354</v>
+        <v>0.889606600882922</v>
       </c>
       <c r="J8">
-        <v>0.9350131201380353</v>
+        <v>0.8896066008829221</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>8.262912</v>
       </c>
       <c r="O8">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P8">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q8">
         <v>48.56561599470933</v>
@@ -948,10 +948,10 @@
         <v>437.0905439523839</v>
       </c>
       <c r="S8">
-        <v>0.2556313474107637</v>
+        <v>0.2430106699927024</v>
       </c>
       <c r="T8">
-        <v>0.2556313474107637</v>
+        <v>0.2430106699927024</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>52.897882</v>
       </c>
       <c r="I9">
-        <v>0.9350131201380354</v>
+        <v>0.889606600882922</v>
       </c>
       <c r="J9">
-        <v>0.9350131201380353</v>
+        <v>0.8896066008829221</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N9">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O9">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P9">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q9">
-        <v>4.042873447953555</v>
+        <v>10.02307304873267</v>
       </c>
       <c r="R9">
-        <v>36.385861031582</v>
+        <v>90.207657438594</v>
       </c>
       <c r="S9">
-        <v>0.02128018281543374</v>
+        <v>0.05015304855236814</v>
       </c>
       <c r="T9">
-        <v>0.02128018281543374</v>
+        <v>0.05015304855236814</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>52.897882</v>
       </c>
       <c r="I10">
-        <v>0.9350131201380354</v>
+        <v>0.889606600882922</v>
       </c>
       <c r="J10">
-        <v>0.9350131201380353</v>
+        <v>0.8896066008829221</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N10">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O10">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P10">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q10">
-        <v>4.684665817632221</v>
+        <v>6.504964222846444</v>
       </c>
       <c r="R10">
-        <v>42.16199235869</v>
+        <v>58.544678005618</v>
       </c>
       <c r="S10">
-        <v>0.02465833925098223</v>
+        <v>0.0325492775432866</v>
       </c>
       <c r="T10">
-        <v>0.02465833925098224</v>
+        <v>0.0325492775432866</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,40 +1104,40 @@
         <v>52.897882</v>
       </c>
       <c r="I11">
-        <v>0.9350131201380354</v>
+        <v>0.889606600882922</v>
       </c>
       <c r="J11">
-        <v>0.9350131201380353</v>
+        <v>0.8896066008829221</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N11">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O11">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P11">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q11">
-        <v>3.788652104604</v>
+        <v>4.927743340507111</v>
       </c>
       <c r="R11">
-        <v>34.097868941436</v>
+        <v>44.34969006456399</v>
       </c>
       <c r="S11">
-        <v>0.01994205617562954</v>
+        <v>0.02465724332332496</v>
       </c>
       <c r="T11">
-        <v>0.01994205617562954</v>
+        <v>0.02465724332332496</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.01414533333333333</v>
+        <v>0.7378426666666668</v>
       </c>
       <c r="H12">
-        <v>0.042436</v>
+        <v>2.213528</v>
       </c>
       <c r="I12">
-        <v>0.0007500908404267997</v>
+        <v>0.03722585944063267</v>
       </c>
       <c r="J12">
-        <v>0.0007500908404267996</v>
+        <v>0.03722585944063268</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N12">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O12">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P12">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q12">
-        <v>0.09350317591777779</v>
+        <v>4.509511147737777</v>
       </c>
       <c r="R12">
-        <v>0.8415285832600001</v>
+        <v>40.58560032963999</v>
       </c>
       <c r="S12">
-        <v>0.0004921659564588061</v>
+        <v>0.02256450995022279</v>
       </c>
       <c r="T12">
-        <v>0.0004921659564588061</v>
+        <v>0.02256450995022279</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.01414533333333333</v>
+        <v>0.7378426666666668</v>
       </c>
       <c r="H13">
-        <v>0.042436</v>
+        <v>2.213528</v>
       </c>
       <c r="I13">
-        <v>0.0007500908404267997</v>
+        <v>0.03722585944063267</v>
       </c>
       <c r="J13">
-        <v>0.0007500908404267996</v>
+        <v>0.03722585944063268</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>8.262912</v>
       </c>
       <c r="O13">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P13">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q13">
-        <v>0.03896054818133333</v>
+        <v>2.032243008170667</v>
       </c>
       <c r="R13">
-        <v>0.350644933632</v>
+        <v>18.290187073536</v>
       </c>
       <c r="S13">
-        <v>0.0002050738413065984</v>
+        <v>0.01016885557587366</v>
       </c>
       <c r="T13">
-        <v>0.0002050738413065984</v>
+        <v>0.01016885557587366</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.01414533333333333</v>
+        <v>0.7378426666666668</v>
       </c>
       <c r="H14">
-        <v>0.042436</v>
+        <v>2.213528</v>
       </c>
       <c r="I14">
-        <v>0.0007500908404267997</v>
+        <v>0.03722585944063267</v>
       </c>
       <c r="J14">
-        <v>0.0007500908404267996</v>
+        <v>0.03722585944063268</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N14">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O14">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P14">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q14">
-        <v>0.003243293892888889</v>
+        <v>0.4194185475973334</v>
       </c>
       <c r="R14">
-        <v>0.029189645036</v>
+        <v>3.774766928376</v>
       </c>
       <c r="S14">
-        <v>1.707149329638087E-05</v>
+        <v>0.002098669607528452</v>
       </c>
       <c r="T14">
-        <v>1.707149329638087E-05</v>
+        <v>0.002098669607528452</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.01414533333333333</v>
+        <v>0.7378426666666668</v>
       </c>
       <c r="H15">
-        <v>0.042436</v>
+        <v>2.213528</v>
       </c>
       <c r="I15">
-        <v>0.0007500908404267997</v>
+        <v>0.03722585944063267</v>
       </c>
       <c r="J15">
-        <v>0.0007500908404267996</v>
+        <v>0.03722585944063268</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N15">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O15">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P15">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q15">
-        <v>0.003758155735555556</v>
+        <v>0.2722022111635556</v>
       </c>
       <c r="R15">
-        <v>0.03382340162</v>
+        <v>2.449819900472</v>
       </c>
       <c r="S15">
-        <v>1.978153462655995E-05</v>
+        <v>0.001362034442547929</v>
       </c>
       <c r="T15">
-        <v>1.978153462655995E-05</v>
+        <v>0.001362034442547929</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.01414533333333333</v>
+        <v>0.7378426666666668</v>
       </c>
       <c r="H16">
-        <v>0.042436</v>
+        <v>2.213528</v>
       </c>
       <c r="I16">
-        <v>0.0007500908404267997</v>
+        <v>0.03722585944063267</v>
       </c>
       <c r="J16">
-        <v>0.0007500908404267996</v>
+        <v>0.03722585944063268</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N16">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O16">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P16">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q16">
-        <v>0.003039351192</v>
+        <v>0.2062029224728889</v>
       </c>
       <c r="R16">
-        <v>0.027354160728</v>
+        <v>1.855826302256</v>
       </c>
       <c r="S16">
-        <v>1.599801473845428E-05</v>
+        <v>0.001031789864459845</v>
       </c>
       <c r="T16">
-        <v>1.599801473845428E-05</v>
+        <v>0.001031789864459845</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.7115299999999999</v>
+        <v>1.143822333333333</v>
       </c>
       <c r="H17">
-        <v>2.13459</v>
+        <v>3.431467</v>
       </c>
       <c r="I17">
-        <v>0.03773061568165336</v>
+        <v>0.05770846730521116</v>
       </c>
       <c r="J17">
-        <v>0.03773061568165335</v>
+        <v>0.05770846730521117</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N17">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O17">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P17">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q17">
-        <v>4.703340189516666</v>
+        <v>6.990758052120555</v>
       </c>
       <c r="R17">
-        <v>42.33006170565</v>
+        <v>62.91682246908499</v>
       </c>
       <c r="S17">
-        <v>0.02475663420203136</v>
+        <v>0.03498007310743806</v>
       </c>
       <c r="T17">
-        <v>0.02475663420203136</v>
+        <v>0.03498007310743805</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.7115299999999999</v>
+        <v>1.143822333333333</v>
       </c>
       <c r="H18">
-        <v>2.13459</v>
+        <v>3.431467</v>
       </c>
       <c r="I18">
-        <v>0.03773061568165336</v>
+        <v>0.05770846730521116</v>
       </c>
       <c r="J18">
-        <v>0.03773061568165335</v>
+        <v>0.05770846730521117</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>8.262912</v>
       </c>
       <c r="O18">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P18">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q18">
-        <v>1.95976992512</v>
+        <v>3.150434427989333</v>
       </c>
       <c r="R18">
-        <v>17.63792932608</v>
+        <v>28.353909851904</v>
       </c>
       <c r="S18">
-        <v>0.01031550030433245</v>
+        <v>0.0157640166902684</v>
       </c>
       <c r="T18">
-        <v>0.01031550030433245</v>
+        <v>0.01576401669026841</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.7115299999999999</v>
+        <v>1.143822333333333</v>
       </c>
       <c r="H19">
-        <v>2.13459</v>
+        <v>3.431467</v>
       </c>
       <c r="I19">
-        <v>0.03773061568165336</v>
+        <v>0.05770846730521116</v>
       </c>
       <c r="J19">
-        <v>0.03773061568165335</v>
+        <v>0.05770846730521117</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N19">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O19">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P19">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q19">
-        <v>0.1631422073433333</v>
+        <v>0.6501932233376667</v>
       </c>
       <c r="R19">
-        <v>1.46827986609</v>
+        <v>5.851739010039</v>
       </c>
       <c r="S19">
-        <v>0.0008587199282571786</v>
+        <v>0.003253410619669972</v>
       </c>
       <c r="T19">
-        <v>0.0008587199282571786</v>
+        <v>0.003253410619669972</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.7115299999999999</v>
+        <v>1.143822333333333</v>
       </c>
       <c r="H20">
-        <v>2.13459</v>
+        <v>3.431467</v>
       </c>
       <c r="I20">
-        <v>0.03773061568165336</v>
+        <v>0.05770846730521116</v>
       </c>
       <c r="J20">
-        <v>0.03773061568165335</v>
+        <v>0.05770846730521117</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N20">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O20">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P20">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q20">
-        <v>0.1890404762833333</v>
+        <v>0.4219747411981111</v>
       </c>
       <c r="R20">
-        <v>1.70136428655</v>
+        <v>3.797772670783</v>
       </c>
       <c r="S20">
-        <v>0.0009950387877865161</v>
+        <v>0.002111460185941454</v>
       </c>
       <c r="T20">
-        <v>0.0009950387877865161</v>
+        <v>0.002111460185941454</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,14 +1703,14 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
       <c r="E21">
         <v>3</v>
       </c>
@@ -1718,46 +1718,356 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.7115299999999999</v>
+        <v>1.143822333333333</v>
       </c>
       <c r="H21">
-        <v>2.13459</v>
+        <v>3.431467</v>
       </c>
       <c r="I21">
-        <v>0.03773061568165336</v>
+        <v>0.05770846730521116</v>
       </c>
       <c r="J21">
-        <v>0.03773061568165335</v>
+        <v>0.05770846730521117</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N21">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O21">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P21">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q21">
-        <v>0.15288360498</v>
+        <v>0.3196609773037778</v>
       </c>
       <c r="R21">
-        <v>1.37595244482</v>
+        <v>2.876948795734</v>
       </c>
       <c r="S21">
-        <v>0.0008047224592458553</v>
+        <v>0.001599506701893281</v>
       </c>
       <c r="T21">
-        <v>0.0008047224592458553</v>
+        <v>0.001599506701893281</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.07434200000000001</v>
+      </c>
+      <c r="H22">
+        <v>0.223026</v>
+      </c>
+      <c r="I22">
+        <v>0.003750724873417703</v>
+      </c>
+      <c r="J22">
+        <v>0.003750724873417703</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>6.111751666666666</v>
+      </c>
+      <c r="N22">
+        <v>18.335255</v>
+      </c>
+      <c r="O22">
+        <v>0.6061514841909396</v>
+      </c>
+      <c r="P22">
+        <v>0.6061514841909394</v>
+      </c>
+      <c r="Q22">
+        <v>0.4543598424033333</v>
+      </c>
+      <c r="R22">
+        <v>4.089238581629999</v>
+      </c>
+      <c r="S22">
+        <v>0.002273507448814015</v>
+      </c>
+      <c r="T22">
+        <v>0.002273507448814014</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.07434200000000001</v>
+      </c>
+      <c r="H23">
+        <v>0.223026</v>
+      </c>
+      <c r="I23">
+        <v>0.003750724873417703</v>
+      </c>
+      <c r="J23">
+        <v>0.003750724873417703</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.754304</v>
+      </c>
+      <c r="N23">
+        <v>8.262912</v>
+      </c>
+      <c r="O23">
+        <v>0.2731664420559804</v>
+      </c>
+      <c r="P23">
+        <v>0.2731664420559804</v>
+      </c>
+      <c r="Q23">
+        <v>0.204760467968</v>
+      </c>
+      <c r="R23">
+        <v>1.842844211712</v>
+      </c>
+      <c r="S23">
+        <v>0.001024572168802381</v>
+      </c>
+      <c r="T23">
+        <v>0.001024572168802381</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.07434200000000001</v>
+      </c>
+      <c r="H24">
+        <v>0.223026</v>
+      </c>
+      <c r="I24">
+        <v>0.003750724873417703</v>
+      </c>
+      <c r="J24">
+        <v>0.003750724873417703</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.568439</v>
+      </c>
+      <c r="N24">
+        <v>1.705317</v>
+      </c>
+      <c r="O24">
+        <v>0.0563766596410053</v>
+      </c>
+      <c r="P24">
+        <v>0.05637665964100529</v>
+      </c>
+      <c r="Q24">
+        <v>0.04225889213800001</v>
+      </c>
+      <c r="R24">
+        <v>0.380330029242</v>
+      </c>
+      <c r="S24">
+        <v>0.0002114533395957225</v>
+      </c>
+      <c r="T24">
+        <v>0.0002114533395957225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.07434200000000001</v>
+      </c>
+      <c r="H25">
+        <v>0.223026</v>
+      </c>
+      <c r="I25">
+        <v>0.003750724873417703</v>
+      </c>
+      <c r="J25">
+        <v>0.003750724873417703</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.3689163333333333</v>
+      </c>
+      <c r="N25">
+        <v>1.106749</v>
+      </c>
+      <c r="O25">
+        <v>0.036588394815171</v>
+      </c>
+      <c r="P25">
+        <v>0.036588394815171</v>
+      </c>
+      <c r="Q25">
+        <v>0.02742597805266667</v>
+      </c>
+      <c r="R25">
+        <v>0.246833802474</v>
+      </c>
+      <c r="S25">
+        <v>0.0001372330025116892</v>
+      </c>
+      <c r="T25">
+        <v>0.0001372330025116892</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.07434200000000001</v>
+      </c>
+      <c r="H26">
+        <v>0.223026</v>
+      </c>
+      <c r="I26">
+        <v>0.003750724873417703</v>
+      </c>
+      <c r="J26">
+        <v>0.003750724873417703</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.2794673333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.838402</v>
+      </c>
+      <c r="O26">
+        <v>0.02771701929690382</v>
+      </c>
+      <c r="P26">
+        <v>0.02771701929690381</v>
+      </c>
+      <c r="Q26">
+        <v>0.02077616049466667</v>
+      </c>
+      <c r="R26">
+        <v>0.186985444452</v>
+      </c>
+      <c r="S26">
+        <v>0.0001039589136938956</v>
+      </c>
+      <c r="T26">
+        <v>0.0001039589136938956</v>
       </c>
     </row>
   </sheetData>
